--- a/ArticleManage/main_working_folder/output_folders/Data 96 Sustainable activated carbons prepared/Data96_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 96 Sustainable activated carbons prepared/Data96_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="SC800" sheetId="1" r:id="rId1"/>
-    <sheet name="SC800P" sheetId="2" r:id="rId4"/>
-    <sheet name="SH800" sheetId="3" r:id="rId5"/>
-    <sheet name="SSt800" sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 SC800  0-1-0-35 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 SC800P  0-1-0-35 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 SH800  0-1-0-35 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 SSt800  0-1-0-35 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -109,7 +109,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SC800</a:t>
+              <a:t>Izoterma adsorpcji probki SC800 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SC800!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 SC800  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SC800!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 SC800  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -186,6 +186,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -255,6 +257,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -419,7 +423,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SC800P</a:t>
+              <a:t>Izoterma adsorpcji probki SC800P z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -478,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SC800P!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 SC800P  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SC800P!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 SC800P  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -496,6 +500,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -565,6 +571,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -729,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SH800</a:t>
+              <a:t>Izoterma adsorpcji probki SH800 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -788,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SH800!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 SH800  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SH800!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 SH800  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -806,6 +814,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -875,6 +885,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,7 +1051,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki SSt800</a:t>
+              <a:t>Izoterma adsorpcji probki SSt800 z wykresu 'Figure 2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1098,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>SSt800!$A$3:$A$50</c:f>
+              <c:f>'Figure 2 SSt800  0-1-0-35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SSt800!$B$3:$B$50</c:f>
+              <c:f>'Figure 2 SSt800  0-1-0-35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1116,6 +1128,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1185,6 +1199,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="35"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 96 Sustainable activated carbons prepared/Data96_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 96 Sustainable activated carbons prepared/Data96_all_graphs_excel.xlsx
@@ -4013,7 +4013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4042,173 +4042,165 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0263</v>
+        <v>0.0551</v>
       </c>
       <c r="B4" s="0">
-        <v>15.7769</v>
+        <v>16.5495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0536</v>
+        <v>0.0789</v>
       </c>
       <c r="B5" s="0">
-        <v>16.5263</v>
+        <v>16.7528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0789</v>
+        <v>0.1032</v>
       </c>
       <c r="B6" s="0">
-        <v>16.7528</v>
+        <v>16.9721</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.106</v>
+        <v>0.1287</v>
       </c>
       <c r="B7" s="0">
-        <v>16.9488</v>
+        <v>17.0677</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1334</v>
+        <v>0.1532</v>
       </c>
       <c r="B8" s="0">
-        <v>17.0211</v>
+        <v>17.178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1552</v>
+        <v>0.2518</v>
       </c>
       <c r="B9" s="0">
-        <v>17.1779</v>
+        <v>17.3753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2002</v>
+        <v>0.3501</v>
       </c>
       <c r="B10" s="0">
-        <v>17.3276</v>
+        <v>17.6553</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2518</v>
+        <v>0.6001</v>
       </c>
       <c r="B11" s="0">
-        <v>17.3753</v>
+        <v>17.8455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.301</v>
+        <v>0.7192</v>
       </c>
       <c r="B12" s="0">
-        <v>17.5305</v>
+        <v>17.8374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3501</v>
+        <v>0.8198</v>
       </c>
       <c r="B13" s="0">
-        <v>17.6553</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4009</v>
+        <v>0.9201</v>
       </c>
       <c r="B14" s="0">
-        <v>17.6985</v>
+        <v>17.8035</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5001</v>
+        <v>0.9507</v>
       </c>
       <c r="B15" s="0">
-        <v>17.6574</v>
+        <v>17.813</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5317</v>
+        <v>0.9758</v>
       </c>
       <c r="B16" s="0">
-        <v>17.7979</v>
+        <v>17.8304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6001</v>
+        <v>0.4996</v>
       </c>
       <c r="B17" s="0">
-        <v>17.8455</v>
+        <v>17.7782</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6817</v>
+        <v>0.0423</v>
       </c>
       <c r="B18" s="0">
-        <v>17.7985</v>
+        <v>16.4086</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7192</v>
+        <v>0.0267</v>
       </c>
       <c r="B19" s="0">
-        <v>17.8374</v>
+        <v>16.1312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.8225</v>
+        <v>0.0173</v>
       </c>
       <c r="B20" s="0">
-        <v>17.7999</v>
+        <v>15.7608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8392</v>
+        <v>0.0079</v>
       </c>
       <c r="B21" s="0">
-        <v>17.7997</v>
+        <v>15.2049</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9225</v>
+        <v>0.0017</v>
       </c>
       <c r="B22" s="0">
-        <v>17.757</v>
+        <v>13.3509</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9483</v>
+        <v>0.0017</v>
       </c>
       <c r="B23" s="0">
-        <v>17.7435</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.9758</v>
-      </c>
-      <c r="B24" s="0">
-        <v>17.8304</v>
-      </c>
-    </row>
-    <row r="25"/>
+        <v>13.9536</v>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4217,7 +4209,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4238,229 +4230,165 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0363</v>
+        <v>0.0378</v>
       </c>
       <c r="B3" s="0">
-        <v>12.5524</v>
+        <v>12.645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.063</v>
+        <v>0.1515</v>
       </c>
       <c r="B4" s="0">
-        <v>12.7907</v>
+        <v>13.0561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0898</v>
+        <v>0.2512</v>
       </c>
       <c r="B5" s="0">
-        <v>12.9249</v>
+        <v>13.263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1163</v>
+        <v>0.3507</v>
       </c>
       <c r="B6" s="0">
-        <v>13.0269</v>
+        <v>13.2626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1429</v>
+        <v>0.4008</v>
       </c>
       <c r="B7" s="0">
-        <v>13.0565</v>
+        <v>13.2702</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1595</v>
+        <v>0.5011</v>
       </c>
       <c r="B8" s="0">
-        <v>13.0841</v>
+        <v>13.2472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.2012</v>
+        <v>0.6198</v>
       </c>
       <c r="B9" s="0">
-        <v>13.1773</v>
+        <v>13.2993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2512</v>
+        <v>0.7194</v>
       </c>
       <c r="B10" s="0">
-        <v>13.263</v>
+        <v>13.2371</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.3012</v>
+        <v>0.8199</v>
       </c>
       <c r="B11" s="0">
-        <v>13.2325</v>
+        <v>13.2993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.3495</v>
+        <v>0.0018</v>
       </c>
       <c r="B12" s="0">
-        <v>13.2627</v>
+        <v>11.3112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3895</v>
+        <v>0.0112</v>
       </c>
       <c r="B13" s="0">
-        <v>13.2955</v>
+        <v>11.7743</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.4078</v>
+        <v>0.028</v>
       </c>
       <c r="B14" s="0">
-        <v>13.2699</v>
+        <v>12.4689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.5011</v>
+        <v>0.0746</v>
       </c>
       <c r="B15" s="0">
-        <v>13.2472</v>
+        <v>12.7912</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.5311</v>
+        <v>0.1012</v>
       </c>
       <c r="B16" s="0">
-        <v>13.3135</v>
+        <v>12.8827</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.6194</v>
+        <v>0.1278</v>
       </c>
       <c r="B17" s="0">
-        <v>13.253</v>
+        <v>12.9742</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.6811</v>
+        <v>0.9775</v>
       </c>
       <c r="B18" s="0">
-        <v>13.3065</v>
+        <v>13.3984</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.7194</v>
+        <v>0.9195</v>
       </c>
       <c r="B19" s="0">
-        <v>13.2371</v>
+        <v>13.262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.821</v>
+        <v>0.9696</v>
       </c>
       <c r="B20" s="0">
-        <v>13.2529</v>
+        <v>13.3524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.8377</v>
+        <v>0.0503</v>
       </c>
       <c r="B21" s="0">
-        <v>13.2869</v>
+        <v>12.746</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.921</v>
+        <v>0.0182</v>
       </c>
       <c r="B22" s="0">
-        <v>13.2505</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.9445</v>
-      </c>
-      <c r="B23" s="0">
-        <v>13.2943</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.9743</v>
-      </c>
-      <c r="B24" s="0">
-        <v>13.3037</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.0018</v>
-      </c>
-      <c r="B25" s="0">
-        <v>11.3112</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.0112</v>
-      </c>
-      <c r="B26" s="0">
-        <v>11.7743</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.0245</v>
-      </c>
-      <c r="B27" s="0">
-        <v>12.2836</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.0746</v>
-      </c>
-      <c r="B28" s="0">
-        <v>12.7912</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.1012</v>
-      </c>
-      <c r="B29" s="0">
-        <v>12.8827</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.1278</v>
-      </c>
-      <c r="B30" s="0">
-        <v>12.9742</v>
-      </c>
-    </row>
-    <row r="31"/>
+        <v>12.2376</v>
+      </c>
+    </row>
+    <row r="23"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -4468,250 +4396,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0052</v>
-      </c>
-      <c r="B3" s="0">
-        <v>20.1465</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.001</v>
-      </c>
-      <c r="B4" s="0">
-        <v>18.1374</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0011</v>
-      </c>
-      <c r="B5" s="0">
-        <v>16.3795</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0151</v>
-      </c>
-      <c r="B6" s="0">
-        <v>22.7014</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0327</v>
-      </c>
-      <c r="B7" s="0">
-        <v>24.2377</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0491</v>
-      </c>
-      <c r="B8" s="0">
-        <v>25.5392</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0761</v>
-      </c>
-      <c r="B9" s="0">
-        <v>27.147</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0989</v>
-      </c>
-      <c r="B10" s="0">
-        <v>27.9276</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.1272</v>
-      </c>
-      <c r="B11" s="0">
-        <v>28.7533</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1538</v>
-      </c>
-      <c r="B12" s="0">
-        <v>29.3118</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2054</v>
-      </c>
-      <c r="B13" s="0">
-        <v>30.0659</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2621</v>
-      </c>
-      <c r="B14" s="0">
-        <v>30.5711</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3037</v>
-      </c>
-      <c r="B15" s="0">
-        <v>30.8823</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3297</v>
-      </c>
-      <c r="B16" s="0">
-        <v>30.9841</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3504</v>
-      </c>
-      <c r="B17" s="0">
-        <v>31.0639</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4003</v>
-      </c>
-      <c r="B18" s="0">
-        <v>31.3041</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4986</v>
-      </c>
-      <c r="B19" s="0">
-        <v>31.5843</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.5336</v>
-      </c>
-      <c r="B20" s="0">
-        <v>31.6526</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5978</v>
-      </c>
-      <c r="B21" s="0">
-        <v>31.6707</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.6869</v>
-      </c>
-      <c r="B22" s="0">
-        <v>31.8565</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.7036</v>
-      </c>
-      <c r="B23" s="0">
-        <v>31.8379</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7977</v>
-      </c>
-      <c r="B24" s="0">
-        <v>31.965</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.8335</v>
-      </c>
-      <c r="B25" s="0">
-        <v>32.0785</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.8969</v>
-      </c>
-      <c r="B26" s="0">
-        <v>32.1446</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.9368</v>
-      </c>
-      <c r="B27" s="0">
-        <v>32.3449</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.9646</v>
-      </c>
-      <c r="B28" s="0">
-        <v>32.4772</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9801</v>
-      </c>
-      <c r="B29" s="0">
-        <v>32.6019</v>
-      </c>
-    </row>
-    <row r="30"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -4721,7 +4405,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -4734,210 +4418,210 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0008</v>
+        <v>0.9735</v>
       </c>
       <c r="B3" s="0">
-        <v>6.5101</v>
+        <v>32.637</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0071</v>
+        <v>0.9469</v>
       </c>
       <c r="B4" s="0">
-        <v>8.8617</v>
+        <v>32.4064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0331</v>
+        <v>0.8968</v>
       </c>
       <c r="B5" s="0">
-        <v>9.6527</v>
+        <v>32.177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0597</v>
+        <v>0.7981</v>
       </c>
       <c r="B6" s="0">
-        <v>9.7542</v>
+        <v>32.0425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.2005</v>
+        <v>0.6979</v>
       </c>
       <c r="B7" s="0">
-        <v>10.0205</v>
+        <v>31.8617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.2505</v>
+        <v>0.5976</v>
       </c>
       <c r="B8" s="0">
-        <v>10.0464</v>
+        <v>31.7736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3005</v>
+        <v>0.499</v>
       </c>
       <c r="B9" s="0">
-        <v>10.0986</v>
+        <v>31.5464</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.3505</v>
+        <v>0.3479</v>
       </c>
       <c r="B10" s="0">
-        <v>10.0922</v>
+        <v>31.0898</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.4013</v>
+        <v>0.3142</v>
       </c>
       <c r="B11" s="0">
-        <v>10.1242</v>
+        <v>30.9523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.4996</v>
+        <v>0.261</v>
       </c>
       <c r="B12" s="0">
-        <v>10.2074</v>
+        <v>30.5839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.5504</v>
+        <v>0.2085</v>
       </c>
       <c r="B13" s="0">
-        <v>10.2395</v>
+        <v>30.1691</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.5996</v>
+        <v>0.1537</v>
       </c>
       <c r="B14" s="0">
-        <v>10.1675</v>
+        <v>29.3372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.6829</v>
+        <v>0.1271</v>
       </c>
       <c r="B15" s="0">
-        <v>10.2439</v>
+        <v>28.7822</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.7029</v>
+        <v>0.0974</v>
       </c>
       <c r="B16" s="0">
-        <v>10.3339</v>
+        <v>27.9491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.7987</v>
+        <v>0.0732</v>
       </c>
       <c r="B17" s="0">
-        <v>10.2762</v>
+        <v>27.0695</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.8303</v>
+        <v>0.0482</v>
       </c>
       <c r="B18" s="0">
-        <v>10.2682</v>
+        <v>25.7726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9003</v>
+        <v>0.0388</v>
       </c>
       <c r="B19" s="0">
-        <v>10.2647</v>
+        <v>25.124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9328</v>
+        <v>0.0302</v>
       </c>
       <c r="B20" s="0">
-        <v>10.2451</v>
+        <v>24.3363</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9786</v>
+        <v>0.0193</v>
       </c>
       <c r="B21" s="0">
-        <v>10.3989</v>
+        <v>23.1316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9502</v>
+        <v>0.0076</v>
       </c>
       <c r="B22" s="0">
-        <v>10.2937</v>
+        <v>21.5096</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.1523</v>
+        <v>0.0061</v>
       </c>
       <c r="B23" s="0">
-        <v>9.9598</v>
+        <v>20.907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.1272</v>
+        <v>0.0046</v>
       </c>
       <c r="B24" s="0">
-        <v>9.9146</v>
+        <v>20.119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.1014</v>
+        <v>0.0023</v>
       </c>
       <c r="B25" s="0">
-        <v>9.9158</v>
+        <v>19.5628</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0771</v>
+        <v>0.0007</v>
       </c>
       <c r="B26" s="0">
-        <v>9.8242</v>
+        <v>18.9139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0442</v>
+        <v>0.0007</v>
       </c>
       <c r="B27" s="0">
-        <v>9.6867</v>
+        <v>18.3112</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.0192</v>
+        <v>0.0004</v>
       </c>
       <c r="B28" s="0">
-        <v>9.4097</v>
+        <v>16.4569</v>
       </c>
     </row>
     <row r="29"/>
@@ -4945,4 +4629,184 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0008</v>
+      </c>
+      <c r="B3" s="0">
+        <v>6.5101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0071</v>
+      </c>
+      <c r="B4" s="0">
+        <v>8.8617</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0331</v>
+      </c>
+      <c r="B5" s="0">
+        <v>9.6527</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0597</v>
+      </c>
+      <c r="B6" s="0">
+        <v>9.7542</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.2505</v>
+      </c>
+      <c r="B7" s="0">
+        <v>10.0464</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.3505</v>
+      </c>
+      <c r="B8" s="0">
+        <v>10.0922</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.4996</v>
+      </c>
+      <c r="B9" s="0">
+        <v>10.2074</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.5996</v>
+      </c>
+      <c r="B10" s="0">
+        <v>10.1675</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.7001</v>
+      </c>
+      <c r="B11" s="0">
+        <v>10.3108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.7987</v>
+      </c>
+      <c r="B12" s="0">
+        <v>10.2762</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.9003</v>
+      </c>
+      <c r="B13" s="0">
+        <v>10.2647</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.9751</v>
+      </c>
+      <c r="B14" s="0">
+        <v>10.3759</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.9502</v>
+      </c>
+      <c r="B15" s="0">
+        <v>10.2937</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1523</v>
+      </c>
+      <c r="B16" s="0">
+        <v>9.9598</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1272</v>
+      </c>
+      <c r="B17" s="0">
+        <v>9.9146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.1014</v>
+      </c>
+      <c r="B18" s="0">
+        <v>9.9158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.0771</v>
+      </c>
+      <c r="B19" s="0">
+        <v>9.8242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.0442</v>
+      </c>
+      <c r="B20" s="0">
+        <v>9.6867</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.0192</v>
+      </c>
+      <c r="B21" s="0">
+        <v>9.4097</v>
+      </c>
+    </row>
+    <row r="22"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/ArticleManage/main_working_folder/output_folders/Data 96 Sustainable activated carbons prepared/Data96_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 96 Sustainable activated carbons prepared/Data96_all_graphs_excel.xlsx
@@ -5,10 +5,10 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 SC800  0-1-0-35 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 SC800P  0-1-0-35 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 SH800  0-1-0-35 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 SSt800  0-1-0-35 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 SC800  0&amp;1&amp;0&amp;35 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 SC800P  0&amp;1&amp;0&amp;35 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 SH800  0&amp;1&amp;0&amp;35 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 SSt800  0&amp;1&amp;0&amp;35 " sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -168,12 +168,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 SC800  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 SC800  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 SC800  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 SC800  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -482,12 +482,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 SC800P  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 SC800P  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 SC800P  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 SC800P  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -796,12 +796,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 SH800  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 SH800  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 SH800  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 SH800  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1110,12 +1110,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 SSt800  0-1-0-35 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 SSt800  0&amp;1&amp;0&amp;35 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 SSt800  0-1-0-35 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 SSt800  0&amp;1&amp;0&amp;35 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
